--- a/templates/QARSF/LOCAdd.xlsx
+++ b/templates/QARSF/LOCAdd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7F94E-E7FD-4ACC-B01C-4E51481499F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1882F-1B7A-4AC8-AFB2-9DFC19151547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,12 +682,6 @@
       <c r="S5">
         <v>100</v>
       </c>
-      <c r="T5">
-        <v>10</v>
-      </c>
-      <c r="U5">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
